--- a/Hennenminuten_R.xlsx
+++ b/Hennenminuten_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5dbf6065073cb0a/ETH/Masterarbeit_Bruderhahn/Auswertung/Bruderhahn-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{4B3FB3D1-C2ED-4A16-B2D0-0E9E11C281E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA97E60D-4B32-460F-8F9C-6F550E445ABD}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{4B3FB3D1-C2ED-4A16-B2D0-0E9E11C281E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58289A5-7B75-41BF-AE39-EF814A39918B}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E6C36B5E-8F49-489B-80CB-D3353FB23246}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="51">
   <si>
     <t>pen</t>
   </si>
@@ -170,12 +170,6 @@
     <t>26.10.</t>
   </si>
   <si>
-    <t>midP_start</t>
-  </si>
-  <si>
-    <t>topP_start</t>
-  </si>
-  <si>
     <t>totP_start</t>
   </si>
   <si>
@@ -184,12 +178,27 @@
   <si>
     <t>23.11.</t>
   </si>
+  <si>
+    <t>04.12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M </t>
+  </si>
+  <si>
+    <t>balancing</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>tried_and_failed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +226,11 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="6">
@@ -278,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -290,11 +304,35 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -305,6 +343,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A173E0-2D05-4866-B19C-A290E4076E05}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:K223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,10 +678,10 @@
     <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -662,16 +704,19 @@
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -697,13 +742,16 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -729,13 +777,16 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -761,13 +812,16 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -793,13 +847,16 @@
         <v>15</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -825,13 +882,16 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -857,13 +917,16 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -889,13 +952,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -921,13 +987,16 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -953,13 +1022,16 @@
         <v>17</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -985,13 +1057,16 @@
         <v>18</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1017,13 +1092,16 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1049,13 +1127,16 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1081,13 +1162,16 @@
         <v>12</v>
       </c>
       <c r="I14">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1113,13 +1197,16 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1145,13 +1232,16 @@
         <v>9</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="J16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1177,13 +1267,16 @@
         <v>12</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1209,13 +1302,16 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="J18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1241,13 +1337,16 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1273,13 +1372,16 @@
         <v>8</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1305,13 +1407,16 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1337,13 +1442,16 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1369,13 +1477,16 @@
         <v>5</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1401,13 +1512,16 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1433,13 +1547,16 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1465,13 +1582,16 @@
         <v>6</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1497,13 +1617,16 @@
         <v>10</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1529,13 +1652,16 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1561,13 +1687,16 @@
         <v>11</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1593,13 +1722,16 @@
         <v>9</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1625,13 +1757,16 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1657,13 +1792,16 @@
         <v>12</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="J32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1689,13 +1827,16 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J33">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1721,13 +1862,16 @@
         <v>15</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1753,13 +1897,16 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1785,13 +1932,16 @@
         <v>19</v>
       </c>
       <c r="I36">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J36">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1817,13 +1967,16 @@
         <v>16</v>
       </c>
       <c r="I37">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1849,13 +2002,16 @@
         <v>16</v>
       </c>
       <c r="I38">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1881,13 +2037,16 @@
         <v>17</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1913,13 +2072,16 @@
         <v>16</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="J40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1945,13 +2107,16 @@
         <v>12</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J41">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1977,13 +2142,16 @@
         <v>14</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="J42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2009,13 +2177,16 @@
         <v>16</v>
       </c>
       <c r="I43">
+        <v>42</v>
+      </c>
+      <c r="J43">
         <v>5</v>
       </c>
-      <c r="J43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2041,13 +2212,16 @@
         <v>7</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2073,13 +2247,16 @@
         <v>7</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="J45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2105,13 +2282,16 @@
         <v>16</v>
       </c>
       <c r="I46">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2137,13 +2317,16 @@
         <v>14</v>
       </c>
       <c r="I47">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2169,13 +2352,16 @@
         <v>7</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2201,13 +2387,16 @@
         <v>5</v>
       </c>
       <c r="I49">
+        <v>41</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2238,8 +2427,11 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2265,13 +2457,16 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2297,13 +2492,16 @@
         <v>16</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2329,13 +2527,16 @@
         <v>15</v>
       </c>
       <c r="I53">
+        <v>22</v>
+      </c>
+      <c r="J53">
         <v>5</v>
       </c>
-      <c r="J53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2361,13 +2562,16 @@
         <v>14</v>
       </c>
       <c r="I54">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="J54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2393,13 +2597,16 @@
         <v>12</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="J55">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2425,13 +2632,16 @@
         <v>13</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="J56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2457,13 +2667,16 @@
         <v>9</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="J57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -2489,13 +2702,16 @@
         <v>8</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J58">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2521,13 +2737,16 @@
         <v>10</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2553,13 +2772,16 @@
         <v>5</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -2585,15 +2807,18 @@
         <v>6</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -2617,15 +2842,18 @@
         <v>16</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="J62">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -2649,15 +2877,18 @@
         <v>11</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>9</v>
@@ -2681,15 +2912,18 @@
         <v>18</v>
       </c>
       <c r="I64">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="J64">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>9</v>
@@ -2713,15 +2947,18 @@
         <v>15</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J65">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>9</v>
@@ -2745,15 +2982,18 @@
         <v>14</v>
       </c>
       <c r="I66">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>9</v>
@@ -2777,15 +3017,18 @@
         <v>11</v>
       </c>
       <c r="I67">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B68">
         <v>9</v>
@@ -2809,15 +3052,18 @@
         <v>13</v>
       </c>
       <c r="I68">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J68">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B69">
         <v>9</v>
@@ -2841,15 +3087,18 @@
         <v>8</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="J69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>9</v>
@@ -2873,15 +3122,18 @@
         <v>16</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J70">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B71">
         <v>9</v>
@@ -2905,15 +3157,18 @@
         <v>14</v>
       </c>
       <c r="I71">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -2937,15 +3192,18 @@
         <v>16</v>
       </c>
       <c r="I72">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>9</v>
@@ -2969,15 +3227,18 @@
         <v>11</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J73">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>9</v>
@@ -3001,15 +3262,18 @@
         <v>14</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -3033,15 +3297,18 @@
         <v>15</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -3065,15 +3332,18 @@
         <v>13</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>9</v>
@@ -3097,15 +3367,18 @@
         <v>5</v>
       </c>
       <c r="I77">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>9</v>
@@ -3129,15 +3402,18 @@
         <v>19</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -3161,15 +3437,18 @@
         <v>18</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J79">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -3193,15 +3472,18 @@
         <v>14</v>
       </c>
       <c r="I80">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="J80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>9</v>
@@ -3225,15 +3507,18 @@
         <v>12</v>
       </c>
       <c r="I81">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>9</v>
@@ -3257,15 +3542,18 @@
         <v>16</v>
       </c>
       <c r="I82">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>9</v>
@@ -3289,15 +3577,18 @@
         <v>7</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B84">
         <v>9</v>
@@ -3321,15 +3612,18 @@
         <v>10</v>
       </c>
       <c r="I84">
+        <v>28</v>
+      </c>
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -3353,15 +3647,18 @@
         <v>13</v>
       </c>
       <c r="I85">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J85">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B86">
         <v>9</v>
@@ -3385,15 +3682,18 @@
         <v>16</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="J86">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B87">
         <v>9</v>
@@ -3417,15 +3717,18 @@
         <v>10</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J87">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>9</v>
@@ -3449,15 +3752,18 @@
         <v>18</v>
       </c>
       <c r="I88">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J88">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B89">
         <v>9</v>
@@ -3481,15 +3787,18 @@
         <v>13</v>
       </c>
       <c r="I89">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="J89">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B90">
         <v>9</v>
@@ -3513,15 +3822,18 @@
         <v>16</v>
       </c>
       <c r="I90">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J90">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>9</v>
@@ -3545,15 +3857,18 @@
         <v>10</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <v>9</v>
@@ -3577,15 +3892,18 @@
         <v>17</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B93">
         <v>9</v>
@@ -3609,15 +3927,18 @@
         <v>8</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>9</v>
@@ -3641,15 +3962,18 @@
         <v>15</v>
       </c>
       <c r="I94">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="J94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>9</v>
@@ -3673,15 +3997,18 @@
         <v>15</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J95">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B96">
         <v>9</v>
@@ -3705,15 +4032,18 @@
         <v>16</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="J96">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -3737,15 +4067,18 @@
         <v>17</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J97">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B98">
         <v>9</v>
@@ -3769,15 +4102,18 @@
         <v>16</v>
       </c>
       <c r="I98">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -3801,15 +4137,18 @@
         <v>10</v>
       </c>
       <c r="I99">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B100">
         <v>9</v>
@@ -3833,15 +4172,18 @@
         <v>16</v>
       </c>
       <c r="I100">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="J100">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B101">
         <v>9</v>
@@ -3868,12 +4210,15 @@
         <v>3</v>
       </c>
       <c r="J101">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B102">
         <v>9</v>
@@ -3897,15 +4242,18 @@
         <v>16</v>
       </c>
       <c r="I102">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="J102">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B103">
         <v>9</v>
@@ -3932,12 +4280,15 @@
         <v>9</v>
       </c>
       <c r="J103">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B104">
         <v>9</v>
@@ -3961,15 +4312,18 @@
         <v>15</v>
       </c>
       <c r="I104">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J104">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -3993,15 +4347,18 @@
         <v>7</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J105">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B106">
         <v>9</v>
@@ -4025,15 +4382,18 @@
         <v>16</v>
       </c>
       <c r="I106">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B107">
         <v>9</v>
@@ -4057,15 +4417,18 @@
         <v>14</v>
       </c>
       <c r="I107">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J107">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B108">
         <v>9</v>
@@ -4089,15 +4452,18 @@
         <v>15</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J108">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B109">
         <v>9</v>
@@ -4121,15 +4487,18 @@
         <v>14</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J109">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B110">
         <v>9</v>
@@ -4153,15 +4522,18 @@
         <v>12</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J110">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B111">
         <v>9</v>
@@ -4185,15 +4557,18 @@
         <v>8</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B112">
         <v>9</v>
@@ -4217,15 +4592,18 @@
         <v>18</v>
       </c>
       <c r="I112">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J112">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B113">
         <v>9</v>
@@ -4249,15 +4627,18 @@
         <v>16</v>
       </c>
       <c r="I113">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J113">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B114">
         <v>9</v>
@@ -4281,15 +4662,18 @@
         <v>15</v>
       </c>
       <c r="I114">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J114">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B115">
         <v>9</v>
@@ -4313,15 +4697,18 @@
         <v>12</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="J115">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B116">
         <v>9</v>
@@ -4345,15 +4732,18 @@
         <v>16</v>
       </c>
       <c r="I116">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B117">
         <v>9</v>
@@ -4377,15 +4767,18 @@
         <v>9</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J117">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B118">
         <v>9</v>
@@ -4409,15 +4802,18 @@
         <v>15</v>
       </c>
       <c r="I118">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="J118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B119">
         <v>9</v>
@@ -4441,15 +4837,18 @@
         <v>10</v>
       </c>
       <c r="I119">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J119">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B120">
         <v>9</v>
@@ -4473,15 +4872,18 @@
         <v>13</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J120">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B121">
         <v>9</v>
@@ -4505,15 +4907,18 @@
         <v>12</v>
       </c>
       <c r="I121">
+        <v>23</v>
+      </c>
+      <c r="J121">
         <v>2</v>
       </c>
-      <c r="J121">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B122">
         <v>11</v>
@@ -4530,19 +4935,25 @@
       <c r="F122" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G122" s="9">
+        <v>8952.6690000000017</v>
+      </c>
       <c r="H122">
         <v>16</v>
       </c>
       <c r="I122">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J122">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B123">
         <v>11</v>
@@ -4559,19 +4970,25 @@
       <c r="F123" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G123" s="9">
+        <v>7451.6260000000002</v>
+      </c>
       <c r="H123">
         <v>14</v>
       </c>
       <c r="I123">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J123">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B124">
         <v>11</v>
@@ -4588,19 +5005,25 @@
       <c r="F124" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G124" s="9">
+        <v>11027.481</v>
+      </c>
       <c r="H124">
         <v>19</v>
       </c>
       <c r="I124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J124">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B125">
         <v>11</v>
@@ -4617,19 +5040,25 @@
       <c r="F125" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G125" s="9">
+        <v>8981.6989999999987</v>
+      </c>
       <c r="H125">
         <v>14</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J125">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B126">
         <v>11</v>
@@ -4646,19 +5075,25 @@
       <c r="F126" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G126" s="9">
+        <v>6430.4780000000001</v>
+      </c>
       <c r="H126">
         <v>13</v>
       </c>
       <c r="I126">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J126">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B127">
         <v>11</v>
@@ -4675,19 +5110,25 @@
       <c r="F127" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G127" s="9">
+        <v>4913.8590000000013</v>
+      </c>
       <c r="H127">
         <v>7</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="J127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B128">
         <v>11</v>
@@ -4704,19 +5145,25 @@
       <c r="F128" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G128" s="9">
+        <v>7113.7169999999996</v>
+      </c>
       <c r="H128">
         <v>15</v>
       </c>
       <c r="I128">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J128">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B129">
         <v>11</v>
@@ -4733,19 +5180,25 @@
       <c r="F129" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G129" s="9">
+        <v>4335.634</v>
+      </c>
       <c r="H129">
         <v>7</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J129">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B130">
         <v>11</v>
@@ -4762,19 +5215,25 @@
       <c r="F130" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G130" s="9">
+        <v>10190.700000000001</v>
+      </c>
       <c r="H130">
         <v>18</v>
       </c>
       <c r="I130">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J130">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B131">
         <v>11</v>
@@ -4791,19 +5250,25 @@
       <c r="F131" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G131" s="9">
+        <v>7214.5879999999997</v>
+      </c>
       <c r="H131">
         <v>11</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J131">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B132">
         <v>11</v>
@@ -4820,19 +5285,25 @@
       <c r="F132" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G132" s="9">
+        <v>6070.5670000000009</v>
+      </c>
       <c r="H132">
         <v>14</v>
       </c>
       <c r="I132">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J132">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B133">
         <v>11</v>
@@ -4849,19 +5320,25 @@
       <c r="F133" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G133" s="9">
+        <v>1968.0659999999996</v>
+      </c>
       <c r="H133">
         <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B134">
         <v>11</v>
@@ -4878,19 +5355,25 @@
       <c r="F134" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G134" s="9">
+        <v>5189.5670000000018</v>
+      </c>
       <c r="H134">
         <v>14</v>
       </c>
       <c r="I134">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J134">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B135">
         <v>11</v>
@@ -4907,19 +5390,25 @@
       <c r="F135" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G135" s="9">
+        <v>2137.0279999999998</v>
+      </c>
       <c r="H135">
         <v>4</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J135">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B136">
         <v>11</v>
@@ -4936,19 +5425,25 @@
       <c r="F136" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G136" s="9">
+        <v>3012.3159999999998</v>
+      </c>
       <c r="H136">
         <v>14</v>
       </c>
       <c r="I136">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="J136">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B137">
         <v>11</v>
@@ -4965,19 +5460,25 @@
       <c r="F137" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G137" s="9">
+        <v>5014.4460000000017</v>
+      </c>
       <c r="H137">
         <v>9</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J137">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B138">
         <v>11</v>
@@ -4994,19 +5495,25 @@
       <c r="F138" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G138" s="9">
+        <v>9614.4590000000026</v>
+      </c>
       <c r="H138">
         <v>18</v>
       </c>
       <c r="I138">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B139">
         <v>11</v>
@@ -5023,19 +5530,25 @@
       <c r="F139" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G139" s="9">
+        <v>9873.3909999999996</v>
+      </c>
       <c r="H139">
         <v>16</v>
       </c>
       <c r="I139">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B140">
         <v>11</v>
@@ -5052,19 +5565,25 @@
       <c r="F140" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G140" s="9">
+        <v>7837.6850000000004</v>
+      </c>
       <c r="H140">
         <v>16</v>
       </c>
       <c r="I140">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J140">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B141">
         <v>11</v>
@@ -5081,19 +5600,25 @@
       <c r="F141" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G141" s="9">
+        <v>8156.4089999999997</v>
+      </c>
       <c r="H141">
         <v>11</v>
       </c>
       <c r="I141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -5110,19 +5635,25 @@
       <c r="F142" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G142" s="9">
+        <v>4846.8510000000006</v>
+      </c>
       <c r="H142">
         <v>15</v>
       </c>
       <c r="I142">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="J142">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B143">
         <v>11</v>
@@ -5139,19 +5670,25 @@
       <c r="F143" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G143" s="9">
+        <v>6859.0630000000001</v>
+      </c>
       <c r="H143">
         <v>11</v>
       </c>
       <c r="I143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J143">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B144">
         <v>11</v>
@@ -5168,19 +5705,25 @@
       <c r="F144" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G144" s="9">
+        <v>9699.219000000001</v>
+      </c>
       <c r="H144">
         <v>18</v>
       </c>
       <c r="I144">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J144">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B145">
         <v>11</v>
@@ -5197,19 +5740,25 @@
       <c r="F145" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G145" s="9">
+        <v>8420.5649999999987</v>
+      </c>
       <c r="H145">
         <v>12</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J145">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B146">
         <v>11</v>
@@ -5226,19 +5775,25 @@
       <c r="F146" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G146" s="9">
+        <v>7812.7180000000026</v>
+      </c>
       <c r="H146">
         <v>14</v>
       </c>
       <c r="I146">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J146">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>11</v>
@@ -5255,19 +5810,25 @@
       <c r="F147" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G147" s="9">
+        <v>3401.4540000000006</v>
+      </c>
       <c r="H147">
         <v>5</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B148">
         <v>11</v>
@@ -5284,19 +5845,25 @@
       <c r="F148" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G148" s="9">
+        <v>8008.0219999999972</v>
+      </c>
       <c r="H148">
         <v>16</v>
       </c>
       <c r="I148">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J148">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B149">
         <v>11</v>
@@ -5313,19 +5880,25 @@
       <c r="F149" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G149" s="9">
+        <v>3888.3650000000002</v>
+      </c>
       <c r="H149">
         <v>7</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J149">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B150">
         <v>11</v>
@@ -5342,19 +5915,25 @@
       <c r="F150" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G150" s="9">
+        <v>7292.5810000000001</v>
+      </c>
       <c r="H150">
         <v>15</v>
       </c>
       <c r="I150">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J150">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B151">
         <v>11</v>
@@ -5371,19 +5950,25 @@
       <c r="F151" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G151" s="9">
+        <v>6904.5850000000009</v>
+      </c>
       <c r="H151">
         <v>12</v>
       </c>
       <c r="I151">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J151">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B152">
         <v>11</v>
@@ -5400,19 +5985,25 @@
       <c r="F152" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G152" s="9">
+        <v>5684.5619999999999</v>
+      </c>
       <c r="H152">
         <v>12</v>
       </c>
       <c r="I152">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J152">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B153">
         <v>11</v>
@@ -5429,19 +6020,25 @@
       <c r="F153" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G153" s="9">
+        <v>4388.8719999999994</v>
+      </c>
       <c r="H153">
         <v>7</v>
       </c>
       <c r="I153">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B154">
         <v>11</v>
@@ -5458,19 +6055,25 @@
       <c r="F154" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G154" s="9">
+        <v>8304.5879999999997</v>
+      </c>
       <c r="H154">
         <v>17</v>
       </c>
       <c r="I154">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J154">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B155">
         <v>11</v>
@@ -5487,19 +6090,25 @@
       <c r="F155" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G155" s="9">
+        <v>8531.873999999998</v>
+      </c>
       <c r="H155">
         <v>12</v>
       </c>
       <c r="I155">
+        <v>14</v>
+      </c>
+      <c r="J155">
         <v>2</v>
       </c>
-      <c r="J155">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B156">
         <v>11</v>
@@ -5516,19 +6125,25 @@
       <c r="F156" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G156" s="9">
+        <v>6115.7870000000012</v>
+      </c>
       <c r="H156">
         <v>16</v>
       </c>
       <c r="I156">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="J156">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B157">
         <v>11</v>
@@ -5545,19 +6160,25 @@
       <c r="F157" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G157" s="9">
+        <v>4886.5239999999994</v>
+      </c>
       <c r="H157">
         <v>7</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B158">
         <v>11</v>
@@ -5574,19 +6195,25 @@
       <c r="F158" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G158" s="9">
+        <v>6693.3530000000001</v>
+      </c>
       <c r="H158">
         <v>16</v>
       </c>
       <c r="I158">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J158">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B159">
         <v>11</v>
@@ -5603,19 +6230,25 @@
       <c r="F159" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G159" s="9">
+        <v>5450.4310000000005</v>
+      </c>
       <c r="H159">
         <v>8</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J159">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B160">
         <v>11</v>
@@ -5632,19 +6265,25 @@
       <c r="F160" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G160" s="9">
+        <v>5357.0359999999991</v>
+      </c>
       <c r="H160">
         <v>13</v>
       </c>
       <c r="I160">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J160">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B161">
         <v>11</v>
@@ -5661,19 +6300,25 @@
       <c r="F161" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G161" s="9">
+        <v>5899.7889999999989</v>
+      </c>
       <c r="H161">
         <v>9</v>
       </c>
       <c r="I161">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B162">
         <v>11</v>
@@ -5690,19 +6335,25 @@
       <c r="F162" s="5">
         <v>8.4027777777777785E-2</v>
       </c>
+      <c r="G162" s="9">
+        <v>10568.769999999999</v>
+      </c>
       <c r="H162">
         <v>19</v>
       </c>
       <c r="I162">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J162">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B163">
         <v>11</v>
@@ -5719,14 +6370,2120 @@
       <c r="F163" s="5">
         <v>0.72569444444444442</v>
       </c>
+      <c r="G163" s="9">
+        <v>8551.7279999999992</v>
+      </c>
       <c r="H163">
         <v>14</v>
       </c>
       <c r="I163">
+        <v>24</v>
+      </c>
+      <c r="J163">
+        <v>6</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>46</v>
+      </c>
+      <c r="B164">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F164" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G164" s="9">
+        <v>7602.2479999999996</v>
+      </c>
+      <c r="H164">
+        <v>14</v>
+      </c>
+      <c r="I164">
+        <v>20</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>46</v>
+      </c>
+      <c r="B165">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>41</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G165" s="9">
+        <v>6384.4970000000003</v>
+      </c>
+      <c r="H165">
+        <v>11</v>
+      </c>
+      <c r="I165">
+        <v>17</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>46</v>
+      </c>
+      <c r="B166">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J163">
+      <c r="E166" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G166" s="9">
+        <v>9425.5489999999991</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>11</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>46</v>
+      </c>
+      <c r="B167">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E167" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G167" s="9">
+        <v>8574.3239999999987</v>
+      </c>
+      <c r="H167">
+        <v>12</v>
+      </c>
+      <c r="I167">
+        <v>16</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>46</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F168" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G168" s="9">
+        <v>6278.3070000000007</v>
+      </c>
+      <c r="H168">
+        <v>13</v>
+      </c>
+      <c r="I168">
+        <v>12</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>46</v>
+      </c>
+      <c r="B169">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G169" s="9">
+        <v>6346.6489999999994</v>
+      </c>
+      <c r="H169">
         <v>9</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>46</v>
+      </c>
+      <c r="B170">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G170" s="9">
+        <v>5880.7169999999987</v>
+      </c>
+      <c r="H170">
+        <v>13</v>
+      </c>
+      <c r="I170">
+        <v>26</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>46</v>
+      </c>
+      <c r="B171">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G171" s="9">
+        <v>4182.7000000000007</v>
+      </c>
+      <c r="H171">
+        <v>8</v>
+      </c>
+      <c r="I171">
+        <v>16</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>46</v>
+      </c>
+      <c r="B172">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G172" s="9">
+        <v>7882.7920000000031</v>
+      </c>
+      <c r="H172">
+        <v>16</v>
+      </c>
+      <c r="I172">
+        <v>10</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>41</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G173" s="9">
+        <v>7133.8980000000001</v>
+      </c>
+      <c r="H173">
+        <v>12</v>
+      </c>
+      <c r="I173">
+        <v>13</v>
+      </c>
+      <c r="J173">
+        <v>5</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>40</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G174" s="9">
+        <v>5693.9719999999988</v>
+      </c>
+      <c r="H174">
+        <v>12</v>
+      </c>
+      <c r="I174">
+        <v>12</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F175" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G175" s="9">
+        <v>3750.8410000000003</v>
+      </c>
+      <c r="H175">
+        <v>4</v>
+      </c>
+      <c r="I175">
+        <v>10</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G176" s="9">
+        <v>5330.4100000000008</v>
+      </c>
+      <c r="H176">
+        <v>12</v>
+      </c>
+      <c r="I176">
+        <v>8</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F177" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G177" s="9">
+        <v>5439.48</v>
+      </c>
+      <c r="H177">
+        <v>8</v>
+      </c>
+      <c r="I177">
+        <v>5</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F178" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G178" s="9">
+        <v>6644.5100000000011</v>
+      </c>
+      <c r="H178">
+        <v>14</v>
+      </c>
+      <c r="I178">
+        <v>18</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F179" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G179" s="9">
+        <v>4696.0750000000007</v>
+      </c>
+      <c r="H179">
+        <v>8</v>
+      </c>
+      <c r="I179">
+        <v>5</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G180" s="9">
+        <v>11362.79</v>
+      </c>
+      <c r="H180">
+        <v>19</v>
+      </c>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="B181">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E181" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G181" s="9">
+        <v>9197.5250000000015</v>
+      </c>
+      <c r="H181">
+        <v>15</v>
+      </c>
+      <c r="I181">
+        <v>18</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E182" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G182" s="9">
+        <v>8471.6640000000007</v>
+      </c>
+      <c r="H182">
+        <v>15</v>
+      </c>
+      <c r="I182">
+        <v>12</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>46</v>
+      </c>
+      <c r="B183">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F183" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G183" s="9">
+        <v>5461.0689999999995</v>
+      </c>
+      <c r="H183">
+        <v>8</v>
+      </c>
+      <c r="I183">
+        <v>18</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>46</v>
+      </c>
+      <c r="B184">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F184" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G184" s="9">
+        <v>7170.8920000000016</v>
+      </c>
+      <c r="H184">
+        <v>15</v>
+      </c>
+      <c r="I184">
+        <v>9</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>46</v>
+      </c>
+      <c r="B185">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>41</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G185" s="9">
+        <v>4737.9009999999998</v>
+      </c>
+      <c r="H185">
+        <v>8</v>
+      </c>
+      <c r="I185">
+        <v>7</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>46</v>
+      </c>
+      <c r="B186">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>40</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G186" s="9">
+        <v>8417.6659999999956</v>
+      </c>
+      <c r="H186">
+        <v>18</v>
+      </c>
+      <c r="I186">
+        <v>13</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>46</v>
+      </c>
+      <c r="B187">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G187" s="9">
+        <v>7946.6800000000021</v>
+      </c>
+      <c r="H187">
+        <v>12</v>
+      </c>
+      <c r="I187">
+        <v>9</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>46</v>
+      </c>
+      <c r="B188">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>40</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G188" s="9">
+        <v>7018.4359999999997</v>
+      </c>
+      <c r="H188">
+        <v>13</v>
+      </c>
+      <c r="I188">
+        <v>7</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>46</v>
+      </c>
+      <c r="B189">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G189" s="9">
+        <v>4500.4389999999994</v>
+      </c>
+      <c r="H189">
+        <v>7</v>
+      </c>
+      <c r="I189">
+        <v>16</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>46</v>
+      </c>
+      <c r="B190">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>40</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G190" s="9">
+        <v>6793.9369999999981</v>
+      </c>
+      <c r="H190">
+        <v>15</v>
+      </c>
+      <c r="I190">
+        <v>13</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>46</v>
+      </c>
+      <c r="B191">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G191" s="9">
+        <v>8962.9620000000014</v>
+      </c>
+      <c r="H191">
+        <v>13</v>
+      </c>
+      <c r="I191">
+        <v>8</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G192" s="9">
+        <v>8249.2400000000016</v>
+      </c>
+      <c r="H192">
+        <v>16</v>
+      </c>
+      <c r="I192">
+        <v>12</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>46</v>
+      </c>
+      <c r="B193">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F193" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G193" s="9">
+        <v>6149.5030000000006</v>
+      </c>
+      <c r="H193">
+        <v>9</v>
+      </c>
+      <c r="I193">
+        <v>6</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>46</v>
+      </c>
+      <c r="B194">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>40</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G194" s="9">
+        <v>9679.4049999999952</v>
+      </c>
+      <c r="H194">
+        <v>19</v>
+      </c>
+      <c r="I194">
+        <v>12</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>46</v>
+      </c>
+      <c r="B195">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G195" s="9">
+        <v>7838.6680000000015</v>
+      </c>
+      <c r="H195">
+        <v>12</v>
+      </c>
+      <c r="I195">
+        <v>5</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>46</v>
+      </c>
+      <c r="B196">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>40</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F196" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G196" s="9">
+        <v>5015.607</v>
+      </c>
+      <c r="H196">
+        <v>13</v>
+      </c>
+      <c r="I196">
+        <v>12</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>46</v>
+      </c>
+      <c r="B197">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F197" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G197" s="9">
+        <v>3827.7040000000002</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>18</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>46</v>
+      </c>
+      <c r="B198">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G198" s="9">
+        <v>7708.9250000000011</v>
+      </c>
+      <c r="H198">
+        <v>15</v>
+      </c>
+      <c r="I198">
+        <v>10</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>46</v>
+      </c>
+      <c r="B199">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G199" s="9">
+        <v>9747.9249999999993</v>
+      </c>
+      <c r="H199">
+        <v>15</v>
+      </c>
+      <c r="I199">
+        <v>5</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>46</v>
+      </c>
+      <c r="B200">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>40</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E200" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G200" s="9">
+        <v>6750.7850000000008</v>
+      </c>
+      <c r="H200">
+        <v>13</v>
+      </c>
+      <c r="I200">
+        <v>9</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>46</v>
+      </c>
+      <c r="B201">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E201" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F201" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G201" s="9">
+        <v>6496.0599999999995</v>
+      </c>
+      <c r="H201">
+        <v>10</v>
+      </c>
+      <c r="I201">
+        <v>7</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>40</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F202" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G202" s="9">
+        <v>4507.2479999999996</v>
+      </c>
+      <c r="H202">
+        <v>13</v>
+      </c>
+      <c r="I202">
+        <v>22</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>46</v>
+      </c>
+      <c r="B203">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G203" s="9">
+        <v>6195.9290000000001</v>
+      </c>
+      <c r="H203">
+        <v>9</v>
+      </c>
+      <c r="I203">
+        <v>3</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>40</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E204" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G204" s="9">
+        <v>9003.5260000000017</v>
+      </c>
+      <c r="H204">
+        <v>17</v>
+      </c>
+      <c r="I204">
+        <v>12</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E205" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G205" s="9">
+        <v>9429.7850000000017</v>
+      </c>
+      <c r="H205">
+        <v>15</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>46</v>
+      </c>
+      <c r="B206">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>40</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E206" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G206" s="9">
+        <v>7025.3720000000003</v>
+      </c>
+      <c r="H206">
+        <v>13</v>
+      </c>
+      <c r="I206">
+        <v>12</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>46</v>
+      </c>
+      <c r="B207">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E207" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F207" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G207" s="9">
+        <v>5285.8389999999999</v>
+      </c>
+      <c r="H207">
+        <v>7</v>
+      </c>
+      <c r="I207">
+        <v>8</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>46</v>
+      </c>
+      <c r="B208">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F208" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G208" s="9">
+        <v>6652.1759999999995</v>
+      </c>
+      <c r="H208">
+        <v>15</v>
+      </c>
+      <c r="I208">
+        <v>28</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>46</v>
+      </c>
+      <c r="B209">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G209" s="9">
+        <v>6009.4670000000006</v>
+      </c>
+      <c r="H209">
+        <v>10</v>
+      </c>
+      <c r="I209">
+        <v>7</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>46</v>
+      </c>
+      <c r="B210">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>40</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G210" s="9">
+        <v>7347.3129999999992</v>
+      </c>
+      <c r="H210">
+        <v>13</v>
+      </c>
+      <c r="I210">
+        <v>10</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>46</v>
+      </c>
+      <c r="B211">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G211" s="9">
+        <v>5977.6949999999997</v>
+      </c>
+      <c r="H211">
+        <v>9</v>
+      </c>
+      <c r="I211">
+        <v>25</v>
+      </c>
+      <c r="J211">
+        <v>4</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>46</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>40</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E212" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F212" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G212" s="9">
+        <v>6158.0840000000017</v>
+      </c>
+      <c r="H212">
+        <v>12</v>
+      </c>
+      <c r="I212">
+        <v>25</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>46</v>
+      </c>
+      <c r="B213">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F213" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G213" s="9">
+        <v>4421.2620000000006</v>
+      </c>
+      <c r="H213">
+        <v>6</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>46</v>
+      </c>
+      <c r="B214">
+        <v>13</v>
+      </c>
+      <c r="C214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E214" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G214" s="9">
+        <v>9571.2080000000005</v>
+      </c>
+      <c r="H214">
+        <v>18</v>
+      </c>
+      <c r="I214">
+        <v>19</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>46</v>
+      </c>
+      <c r="B215">
+        <v>13</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E215" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G215" s="9">
+        <v>8090.9330000000027</v>
+      </c>
+      <c r="H215">
+        <v>13</v>
+      </c>
+      <c r="I215">
+        <v>12</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>46</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G216" s="9">
+        <v>6326.5140000000019</v>
+      </c>
+      <c r="H216">
+        <v>14</v>
+      </c>
+      <c r="I216">
+        <v>20</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217">
+        <v>13</v>
+      </c>
+      <c r="C217" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F217" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G217" s="9">
+        <v>6006.2800000000007</v>
+      </c>
+      <c r="H217">
+        <v>9</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218">
+        <v>13</v>
+      </c>
+      <c r="C218" t="s">
+        <v>40</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E218" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F218" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G218" s="9">
+        <v>6110.5960000000014</v>
+      </c>
+      <c r="H218">
+        <v>13</v>
+      </c>
+      <c r="I218">
+        <v>13</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>46</v>
+      </c>
+      <c r="B219">
+        <v>13</v>
+      </c>
+      <c r="C219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E219" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F219" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G219" s="9">
+        <v>4935.5830000000005</v>
+      </c>
+      <c r="H219">
+        <v>8</v>
+      </c>
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>46</v>
+      </c>
+      <c r="B220">
+        <v>13</v>
+      </c>
+      <c r="C220" t="s">
+        <v>40</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F220" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G220" s="9">
+        <v>7516.9790000000003</v>
+      </c>
+      <c r="H220">
+        <v>16</v>
+      </c>
+      <c r="I220">
+        <v>23</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>46</v>
+      </c>
+      <c r="B221">
+        <v>13</v>
+      </c>
+      <c r="C221" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G221" s="9">
+        <v>5288.473</v>
+      </c>
+      <c r="H221">
+        <v>10</v>
+      </c>
+      <c r="I221">
+        <v>10</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>46</v>
+      </c>
+      <c r="B222">
+        <v>13</v>
+      </c>
+      <c r="C222" t="s">
+        <v>40</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" s="12">
+        <v>8.4027777777777785E-2</v>
+      </c>
+      <c r="G222" s="9">
+        <v>9788.5159999999996</v>
+      </c>
+      <c r="H222">
+        <v>17</v>
+      </c>
+      <c r="I222">
+        <v>5</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>46</v>
+      </c>
+      <c r="B223">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>41</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" s="12">
+        <v>0.72569444444444442</v>
+      </c>
+      <c r="G223" s="9">
+        <v>8264.8450000000012</v>
+      </c>
+      <c r="H223">
+        <v>12</v>
+      </c>
+      <c r="I223">
+        <v>21</v>
+      </c>
+      <c r="J223">
+        <v>2</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Hennenminuten_R.xlsx
+++ b/Hennenminuten_R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5dbf6065073cb0a/ETH/Masterarbeit_Bruderhahn/Auswertung/Bruderhahn-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{4B3FB3D1-C2ED-4A16-B2D0-0E9E11C281E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B58289A5-7B75-41BF-AE39-EF814A39918B}"/>
+  <xr:revisionPtr revIDLastSave="353" documentId="8_{4B3FB3D1-C2ED-4A16-B2D0-0E9E11C281E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F78CC83D-22DA-4CB6-8DAC-3E58EFDC63CD}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{E6C36B5E-8F49-489B-80CB-D3353FB23246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E6C36B5E-8F49-489B-80CB-D3353FB23246}"/>
   </bookViews>
   <sheets>
     <sheet name="Hennenminuten_R" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="52">
   <si>
     <t>pen</t>
   </si>
@@ -193,6 +193,9 @@
   <si>
     <t>tried_and_failed</t>
   </si>
+  <si>
+    <t>totP_end</t>
+  </si>
 </sst>
 </file>
 
@@ -312,27 +315,9 @@
     <xf numFmtId="20" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -350,7 +335,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -666,22 +651,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A173E0-2D05-4866-B19C-A290E4076E05}">
-  <dimension ref="A1:K223"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -707,16 +692,19 @@
         <v>43</v>
       </c>
       <c r="I1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -742,16 +730,19 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -777,16 +768,19 @@
         <v>12</v>
       </c>
       <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
         <v>45</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -812,16 +806,19 @@
         <v>13</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -847,16 +844,19 @@
         <v>15</v>
       </c>
       <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
         <v>32</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -882,16 +882,19 @@
         <v>3</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -917,16 +920,19 @@
         <v>5</v>
       </c>
       <c r="I7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -952,16 +958,19 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -987,16 +996,19 @@
         <v>3</v>
       </c>
       <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>36</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1022,16 +1034,19 @@
         <v>17</v>
       </c>
       <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
         <v>49</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1057,16 +1072,19 @@
         <v>18</v>
       </c>
       <c r="I11">
+        <v>16</v>
+      </c>
+      <c r="J11">
         <v>34</v>
       </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1092,16 +1110,19 @@
         <v>4</v>
       </c>
       <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
         <v>20</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1127,16 +1148,19 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1162,16 +1186,19 @@
         <v>12</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
         <v>53</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1197,16 +1224,19 @@
         <v>13</v>
       </c>
       <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
         <v>26</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1232,16 +1262,19 @@
         <v>9</v>
       </c>
       <c r="I16">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1267,16 +1300,19 @@
         <v>12</v>
       </c>
       <c r="I17">
+        <v>14</v>
+      </c>
+      <c r="J17">
         <v>25</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1302,16 +1338,19 @@
         <v>9</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>26</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1337,16 +1376,19 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="J19">
+        <v>41</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1372,16 +1414,19 @@
         <v>8</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>21</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1407,16 +1452,19 @@
         <v>10</v>
       </c>
       <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
         <v>27</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1442,16 +1490,19 @@
         <v>2</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1477,16 +1528,19 @@
         <v>5</v>
       </c>
       <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="J23">
         <v>25</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1512,16 +1566,19 @@
         <v>1</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1547,16 +1604,19 @@
         <v>7</v>
       </c>
       <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="J25">
         <v>20</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -1582,16 +1642,19 @@
         <v>6</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>32</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1617,16 +1680,19 @@
         <v>10</v>
       </c>
       <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
         <v>35</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1652,16 +1718,19 @@
         <v>13</v>
       </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>15</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1687,16 +1756,19 @@
         <v>11</v>
       </c>
       <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
         <v>37</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1722,16 +1794,19 @@
         <v>9</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
         <v>37</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1757,16 +1832,19 @@
         <v>8</v>
       </c>
       <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
         <v>29</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1792,16 +1870,19 @@
         <v>12</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
         <v>46</v>
       </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1827,16 +1908,19 @@
         <v>15</v>
       </c>
       <c r="I33">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="J33">
+        <v>40</v>
+      </c>
+      <c r="K33">
         <v>3</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1862,16 +1946,19 @@
         <v>15</v>
       </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>55</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1897,16 +1984,19 @@
         <v>17</v>
       </c>
       <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="J35">
         <v>24</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1932,16 +2022,19 @@
         <v>19</v>
       </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>53</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1967,16 +2060,19 @@
         <v>16</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J37">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2002,16 +2098,19 @@
         <v>16</v>
       </c>
       <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
         <v>45</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>1</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2037,16 +2136,19 @@
         <v>17</v>
       </c>
       <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39">
         <v>25</v>
       </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2072,16 +2174,19 @@
         <v>16</v>
       </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>47</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2107,16 +2212,19 @@
         <v>12</v>
       </c>
       <c r="I41">
+        <v>13</v>
+      </c>
+      <c r="J41">
         <v>23</v>
       </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2142,16 +2250,19 @@
         <v>14</v>
       </c>
       <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>32</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2177,16 +2288,19 @@
         <v>16</v>
       </c>
       <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43">
         <v>42</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>5</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2212,16 +2326,19 @@
         <v>7</v>
       </c>
       <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
         <v>18</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>2</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2247,16 +2364,19 @@
         <v>7</v>
       </c>
       <c r="I45">
+        <v>11</v>
+      </c>
+      <c r="J45">
         <v>36</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>1</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2282,16 +2402,19 @@
         <v>16</v>
       </c>
       <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
         <v>56</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2317,16 +2440,19 @@
         <v>14</v>
       </c>
       <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
         <v>19</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -2352,16 +2478,19 @@
         <v>7</v>
       </c>
       <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
         <v>17</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>1</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2387,16 +2516,19 @@
         <v>5</v>
       </c>
       <c r="I49">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -2430,8 +2562,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -2457,16 +2592,19 @@
         <v>3</v>
       </c>
       <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
         <v>20</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -2492,16 +2630,19 @@
         <v>16</v>
       </c>
       <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
         <v>58</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>1</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -2527,16 +2668,19 @@
         <v>15</v>
       </c>
       <c r="I53">
+        <v>17</v>
+      </c>
+      <c r="J53">
         <v>22</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>5</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -2562,16 +2706,19 @@
         <v>14</v>
       </c>
       <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
         <v>45</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>1</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -2597,16 +2744,19 @@
         <v>12</v>
       </c>
       <c r="I55">
+        <v>16</v>
+      </c>
+      <c r="J55">
         <v>49</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
       <c r="K55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -2632,16 +2782,19 @@
         <v>13</v>
       </c>
       <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
         <v>59</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>1</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -2667,16 +2820,19 @@
         <v>9</v>
       </c>
       <c r="I57">
+        <v>16</v>
+      </c>
+      <c r="J57">
         <v>46</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -2702,16 +2858,19 @@
         <v>8</v>
       </c>
       <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58">
         <v>28</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
       <c r="K58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -2737,16 +2896,19 @@
         <v>10</v>
       </c>
       <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59">
         <v>33</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>3</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -2772,16 +2934,19 @@
         <v>5</v>
       </c>
       <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
         <v>11</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -2807,16 +2972,19 @@
         <v>6</v>
       </c>
       <c r="I61">
+        <v>7</v>
+      </c>
+      <c r="J61">
         <v>15</v>
       </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>44</v>
       </c>
@@ -2842,16 +3010,19 @@
         <v>16</v>
       </c>
       <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
         <v>53</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>2</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>44</v>
       </c>
@@ -2877,16 +3048,19 @@
         <v>11</v>
       </c>
       <c r="I63">
+        <v>15</v>
+      </c>
+      <c r="J63">
         <v>28</v>
       </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -2912,16 +3086,19 @@
         <v>18</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
         <v>31</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -2947,16 +3124,19 @@
         <v>15</v>
       </c>
       <c r="I65">
+        <v>20</v>
+      </c>
+      <c r="J65">
         <v>30</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>44</v>
       </c>
@@ -2982,16 +3162,19 @@
         <v>14</v>
       </c>
       <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
         <v>29</v>
       </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -3017,16 +3200,19 @@
         <v>11</v>
       </c>
       <c r="I67">
+        <v>11</v>
+      </c>
+      <c r="J67">
         <v>19</v>
       </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>44</v>
       </c>
@@ -3052,16 +3238,19 @@
         <v>13</v>
       </c>
       <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68">
         <v>30</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>44</v>
       </c>
@@ -3087,16 +3276,19 @@
         <v>8</v>
       </c>
       <c r="I69">
+        <v>9</v>
+      </c>
+      <c r="J69">
         <v>37</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>44</v>
       </c>
@@ -3122,16 +3314,19 @@
         <v>16</v>
       </c>
       <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
         <v>29</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1</v>
       </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -3157,16 +3352,19 @@
         <v>14</v>
       </c>
       <c r="I71">
+        <v>17</v>
+      </c>
+      <c r="J71">
         <v>21</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>3</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>44</v>
       </c>
@@ -3192,16 +3390,19 @@
         <v>16</v>
       </c>
       <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
         <v>26</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>2</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -3227,16 +3428,19 @@
         <v>11</v>
       </c>
       <c r="I73">
+        <v>13</v>
+      </c>
+      <c r="J73">
         <v>25</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>44</v>
       </c>
@@ -3262,16 +3466,19 @@
         <v>14</v>
       </c>
       <c r="I74">
+        <v>9</v>
+      </c>
+      <c r="J74">
         <v>34</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>44</v>
       </c>
@@ -3297,16 +3504,19 @@
         <v>15</v>
       </c>
       <c r="I75">
+        <v>14</v>
+      </c>
+      <c r="J75">
         <v>20</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>44</v>
       </c>
@@ -3332,16 +3542,19 @@
         <v>13</v>
       </c>
       <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
         <v>30</v>
       </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>44</v>
       </c>
@@ -3367,16 +3580,19 @@
         <v>5</v>
       </c>
       <c r="I77">
+        <v>9</v>
+      </c>
+      <c r="J77">
         <v>19</v>
       </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>44</v>
       </c>
@@ -3402,16 +3618,19 @@
         <v>19</v>
       </c>
       <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
         <v>24</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1</v>
       </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>44</v>
       </c>
@@ -3437,16 +3656,19 @@
         <v>18</v>
       </c>
       <c r="I79">
+        <v>19</v>
+      </c>
+      <c r="J79">
         <v>20</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>1</v>
       </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>44</v>
       </c>
@@ -3472,16 +3694,19 @@
         <v>14</v>
       </c>
       <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
         <v>35</v>
       </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -3507,16 +3732,19 @@
         <v>12</v>
       </c>
       <c r="I81">
+        <v>11</v>
+      </c>
+      <c r="J81">
         <v>22</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>1</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>44</v>
       </c>
@@ -3542,16 +3770,19 @@
         <v>16</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
         <v>32</v>
       </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>44</v>
       </c>
@@ -3577,16 +3808,19 @@
         <v>7</v>
       </c>
       <c r="I83">
+        <v>11</v>
+      </c>
+      <c r="J83">
         <v>20</v>
       </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>44</v>
       </c>
@@ -3612,16 +3846,19 @@
         <v>10</v>
       </c>
       <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
         <v>28</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>44</v>
       </c>
@@ -3647,16 +3884,19 @@
         <v>13</v>
       </c>
       <c r="I85">
+        <v>15</v>
+      </c>
+      <c r="J85">
         <v>17</v>
       </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
       <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>44</v>
       </c>
@@ -3682,16 +3922,19 @@
         <v>16</v>
       </c>
       <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
         <v>43</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>1</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -3717,16 +3960,19 @@
         <v>10</v>
       </c>
       <c r="I87">
+        <v>13</v>
+      </c>
+      <c r="J87">
         <v>22</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>1</v>
       </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>44</v>
       </c>
@@ -3752,16 +3998,19 @@
         <v>18</v>
       </c>
       <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88">
         <v>30</v>
       </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>44</v>
       </c>
@@ -3787,16 +4036,19 @@
         <v>13</v>
       </c>
       <c r="I89">
+        <v>14</v>
+      </c>
+      <c r="J89">
         <v>28</v>
       </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -3822,16 +4074,19 @@
         <v>16</v>
       </c>
       <c r="I90">
+        <v>5</v>
+      </c>
+      <c r="J90">
         <v>50</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>1</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -3857,16 +4112,19 @@
         <v>10</v>
       </c>
       <c r="I91">
+        <v>11</v>
+      </c>
+      <c r="J91">
         <v>15</v>
       </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -3892,16 +4150,19 @@
         <v>17</v>
       </c>
       <c r="I92">
+        <v>5</v>
+      </c>
+      <c r="J92">
         <v>12</v>
       </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>44</v>
       </c>
@@ -3927,16 +4188,19 @@
         <v>8</v>
       </c>
       <c r="I93">
+        <v>10</v>
+      </c>
+      <c r="J93">
         <v>18</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>2</v>
       </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>44</v>
       </c>
@@ -3962,16 +4226,19 @@
         <v>15</v>
       </c>
       <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
         <v>33</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -3997,16 +4264,19 @@
         <v>15</v>
       </c>
       <c r="I95">
+        <v>16</v>
+      </c>
+      <c r="J95">
         <v>11</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>44</v>
       </c>
@@ -4032,16 +4302,19 @@
         <v>16</v>
       </c>
       <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="J96">
         <v>38</v>
       </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -4067,16 +4340,19 @@
         <v>17</v>
       </c>
       <c r="I97">
+        <v>19</v>
+      </c>
+      <c r="J97">
         <v>22</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>1</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>44</v>
       </c>
@@ -4102,16 +4378,19 @@
         <v>16</v>
       </c>
       <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98">
         <v>26</v>
       </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>44</v>
       </c>
@@ -4137,16 +4416,19 @@
         <v>10</v>
       </c>
       <c r="I99">
+        <v>13</v>
+      </c>
+      <c r="J99">
         <v>24</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>1</v>
       </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>44</v>
       </c>
@@ -4172,16 +4454,19 @@
         <v>16</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
         <v>49</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>1</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>44</v>
       </c>
@@ -4207,16 +4492,19 @@
         <v>11</v>
       </c>
       <c r="I101">
+        <v>12</v>
+      </c>
+      <c r="J101">
         <v>3</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -4242,16 +4530,19 @@
         <v>16</v>
       </c>
       <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
         <v>29</v>
       </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -4277,16 +4568,19 @@
         <v>19</v>
       </c>
       <c r="I103">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -4312,16 +4606,19 @@
         <v>15</v>
       </c>
       <c r="I104">
+        <v>6</v>
+      </c>
+      <c r="J104">
         <v>34</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>1</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>44</v>
       </c>
@@ -4347,16 +4644,19 @@
         <v>7</v>
       </c>
       <c r="I105">
+        <v>11</v>
+      </c>
+      <c r="J105">
         <v>25</v>
       </c>
-      <c r="J105">
-        <v>0</v>
-      </c>
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>44</v>
       </c>
@@ -4382,16 +4682,19 @@
         <v>16</v>
       </c>
       <c r="I106">
+        <v>4</v>
+      </c>
+      <c r="J106">
         <v>31</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>2</v>
       </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>44</v>
       </c>
@@ -4420,13 +4723,16 @@
         <v>14</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>44</v>
       </c>
@@ -4452,16 +4758,19 @@
         <v>15</v>
       </c>
       <c r="I108">
+        <v>5</v>
+      </c>
+      <c r="J108">
         <v>37</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>44</v>
       </c>
@@ -4487,16 +4796,19 @@
         <v>14</v>
       </c>
       <c r="I109">
+        <v>16</v>
+      </c>
+      <c r="J109">
         <v>11</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>1</v>
       </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>44</v>
       </c>
@@ -4522,16 +4834,19 @@
         <v>12</v>
       </c>
       <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
         <v>34</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>44</v>
       </c>
@@ -4557,16 +4872,19 @@
         <v>8</v>
       </c>
       <c r="I111">
+        <v>8</v>
+      </c>
+      <c r="J111">
         <v>28</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
       <c r="K111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>44</v>
       </c>
@@ -4592,16 +4910,19 @@
         <v>18</v>
       </c>
       <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
         <v>23</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>3</v>
       </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -4627,16 +4948,19 @@
         <v>16</v>
       </c>
       <c r="I113">
+        <v>18</v>
+      </c>
+      <c r="J113">
         <v>32</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>3</v>
       </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>44</v>
       </c>
@@ -4662,16 +4986,19 @@
         <v>15</v>
       </c>
       <c r="I114">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="J114">
+        <v>40</v>
+      </c>
+      <c r="K114">
         <v>1</v>
       </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -4697,16 +5024,19 @@
         <v>12</v>
       </c>
       <c r="I115">
+        <v>16</v>
+      </c>
+      <c r="J115">
         <v>45</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -4732,16 +5062,19 @@
         <v>16</v>
       </c>
       <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
         <v>26</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
       <c r="K116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -4767,16 +5100,19 @@
         <v>9</v>
       </c>
       <c r="I117">
+        <v>11</v>
+      </c>
+      <c r="J117">
         <v>24</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>1</v>
       </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -4802,16 +5138,19 @@
         <v>15</v>
       </c>
       <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
         <v>32</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
       <c r="K118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -4837,16 +5176,19 @@
         <v>10</v>
       </c>
       <c r="I119">
+        <v>13</v>
+      </c>
+      <c r="J119">
         <v>29</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -4872,16 +5214,19 @@
         <v>13</v>
       </c>
       <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="J120">
         <v>31</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
       <c r="K120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -4907,16 +5252,19 @@
         <v>12</v>
       </c>
       <c r="I121">
+        <v>14</v>
+      </c>
+      <c r="J121">
         <v>23</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>2</v>
       </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -4942,16 +5290,19 @@
         <v>16</v>
       </c>
       <c r="I122">
+        <v>11</v>
+      </c>
+      <c r="J122">
         <v>34</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
       <c r="K122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -4977,16 +5328,19 @@
         <v>14</v>
       </c>
       <c r="I123">
+        <v>14</v>
+      </c>
+      <c r="J123">
         <v>22</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -5012,16 +5366,19 @@
         <v>19</v>
       </c>
       <c r="I124">
+        <v>16</v>
+      </c>
+      <c r="J124">
         <v>10</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -5047,16 +5404,19 @@
         <v>14</v>
       </c>
       <c r="I125">
+        <v>16</v>
+      </c>
+      <c r="J125">
         <v>15</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>2</v>
       </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -5082,16 +5442,19 @@
         <v>13</v>
       </c>
       <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
         <v>22</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
       <c r="K126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -5117,16 +5480,19 @@
         <v>7</v>
       </c>
       <c r="I127">
+        <v>10</v>
+      </c>
+      <c r="J127">
         <v>28</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
       <c r="K127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -5152,16 +5518,19 @@
         <v>15</v>
       </c>
       <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
         <v>33</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>1</v>
       </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -5187,16 +5556,19 @@
         <v>7</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -5222,16 +5594,19 @@
         <v>18</v>
       </c>
       <c r="I130">
+        <v>8</v>
+      </c>
+      <c r="J130">
         <v>18</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -5257,16 +5632,19 @@
         <v>11</v>
       </c>
       <c r="I131">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J131">
+        <v>6</v>
+      </c>
+      <c r="K131">
         <v>1</v>
       </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -5292,16 +5670,19 @@
         <v>14</v>
       </c>
       <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
         <v>23</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -5327,16 +5708,19 @@
         <v>3</v>
       </c>
       <c r="I133">
+        <v>6</v>
+      </c>
+      <c r="J133">
         <v>17</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
       <c r="K133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -5362,16 +5746,19 @@
         <v>14</v>
       </c>
       <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
         <v>18</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -5397,16 +5784,19 @@
         <v>4</v>
       </c>
       <c r="I135">
+        <v>4</v>
+      </c>
+      <c r="J135">
         <v>11</v>
       </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -5432,16 +5822,19 @@
         <v>14</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
         <v>31</v>
       </c>
-      <c r="J136">
-        <v>0</v>
-      </c>
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -5467,16 +5860,19 @@
         <v>9</v>
       </c>
       <c r="I137">
+        <v>11</v>
+      </c>
+      <c r="J137">
         <v>33</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>1</v>
       </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -5502,16 +5898,19 @@
         <v>18</v>
       </c>
       <c r="I138">
+        <v>6</v>
+      </c>
+      <c r="J138">
         <v>19</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>1</v>
       </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -5537,16 +5936,19 @@
         <v>16</v>
       </c>
       <c r="I139">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -5572,16 +5974,19 @@
         <v>16</v>
       </c>
       <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
         <v>32</v>
       </c>
-      <c r="J140">
-        <v>0</v>
-      </c>
       <c r="K140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>45</v>
       </c>
@@ -5607,16 +6012,19 @@
         <v>11</v>
       </c>
       <c r="I141">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -5642,16 +6050,19 @@
         <v>15</v>
       </c>
       <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
         <v>26</v>
       </c>
-      <c r="J142">
-        <v>0</v>
-      </c>
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>45</v>
       </c>
@@ -5677,16 +6088,19 @@
         <v>11</v>
       </c>
       <c r="I143">
+        <v>12</v>
+      </c>
+      <c r="J143">
         <v>3</v>
       </c>
-      <c r="J143">
-        <v>0</v>
-      </c>
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>45</v>
       </c>
@@ -5712,16 +6126,19 @@
         <v>18</v>
       </c>
       <c r="I144">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J144">
+        <v>13</v>
+      </c>
+      <c r="K144">
         <v>1</v>
       </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -5747,16 +6164,19 @@
         <v>12</v>
       </c>
       <c r="I145">
+        <v>17</v>
+      </c>
+      <c r="J145">
         <v>12</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>45</v>
       </c>
@@ -5782,16 +6202,19 @@
         <v>14</v>
       </c>
       <c r="I146">
+        <v>4</v>
+      </c>
+      <c r="J146">
         <v>19</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>1</v>
       </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>45</v>
       </c>
@@ -5817,16 +6240,19 @@
         <v>5</v>
       </c>
       <c r="I147">
+        <v>8</v>
+      </c>
+      <c r="J147">
         <v>14</v>
       </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
       <c r="K147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>45</v>
       </c>
@@ -5852,16 +6278,19 @@
         <v>16</v>
       </c>
       <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
         <v>28</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
       <c r="K148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>45</v>
       </c>
@@ -5887,16 +6316,19 @@
         <v>7</v>
       </c>
       <c r="I149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>45</v>
       </c>
@@ -5922,16 +6354,19 @@
         <v>15</v>
       </c>
       <c r="I150">
+        <v>6</v>
+      </c>
+      <c r="J150">
         <v>26</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>1</v>
       </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>45</v>
       </c>
@@ -5957,16 +6392,19 @@
         <v>12</v>
       </c>
       <c r="I151">
+        <v>12</v>
+      </c>
+      <c r="J151">
         <v>36</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>1</v>
       </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>45</v>
       </c>
@@ -5992,16 +6430,19 @@
         <v>12</v>
       </c>
       <c r="I152">
+        <v>3</v>
+      </c>
+      <c r="J152">
         <v>15</v>
       </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
       <c r="K152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -6030,13 +6471,16 @@
         <v>8</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>45</v>
       </c>
@@ -6062,16 +6506,19 @@
         <v>17</v>
       </c>
       <c r="I154">
+        <v>6</v>
+      </c>
+      <c r="J154">
         <v>21</v>
       </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
       <c r="K154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -6097,16 +6544,19 @@
         <v>12</v>
       </c>
       <c r="I155">
+        <v>16</v>
+      </c>
+      <c r="J155">
         <v>14</v>
       </c>
-      <c r="J155">
+      <c r="K155">
         <v>2</v>
       </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>45</v>
       </c>
@@ -6132,16 +6582,19 @@
         <v>16</v>
       </c>
       <c r="I156">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J156">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>45</v>
       </c>
@@ -6167,16 +6620,19 @@
         <v>7</v>
       </c>
       <c r="I157">
+        <v>10</v>
+      </c>
+      <c r="J157">
         <v>25</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
       <c r="K157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>45</v>
       </c>
@@ -6202,16 +6658,19 @@
         <v>16</v>
       </c>
       <c r="I158">
+        <v>5</v>
+      </c>
+      <c r="J158">
         <v>23</v>
       </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>45</v>
       </c>
@@ -6237,16 +6696,19 @@
         <v>8</v>
       </c>
       <c r="I159">
+        <v>10</v>
+      </c>
+      <c r="J159">
         <v>24</v>
       </c>
-      <c r="J159">
+      <c r="K159">
         <v>1</v>
       </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>45</v>
       </c>
@@ -6272,16 +6734,19 @@
         <v>13</v>
       </c>
       <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
         <v>34</v>
       </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
       <c r="K160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>45</v>
       </c>
@@ -6310,13 +6775,16 @@
         <v>12</v>
       </c>
       <c r="J161">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>45</v>
       </c>
@@ -6342,16 +6810,19 @@
         <v>19</v>
       </c>
       <c r="I162">
+        <v>11</v>
+      </c>
+      <c r="J162">
         <v>19</v>
       </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
       <c r="K162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -6377,16 +6848,19 @@
         <v>14</v>
       </c>
       <c r="I163">
+        <v>16</v>
+      </c>
+      <c r="J163">
         <v>24</v>
       </c>
-      <c r="J163">
-        <v>6</v>
-      </c>
       <c r="K163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -6412,16 +6886,19 @@
         <v>14</v>
       </c>
       <c r="I164">
+        <v>7</v>
+      </c>
+      <c r="J164">
         <v>20</v>
       </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -6447,16 +6924,19 @@
         <v>11</v>
       </c>
       <c r="I165">
+        <v>11</v>
+      </c>
+      <c r="J165">
         <v>17</v>
       </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>46</v>
       </c>
@@ -6482,16 +6962,19 @@
         <v>18</v>
       </c>
       <c r="I166">
+        <v>9</v>
+      </c>
+      <c r="J166">
         <v>11</v>
       </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
       <c r="K166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>46</v>
       </c>
@@ -6520,13 +7003,16 @@
         <v>16</v>
       </c>
       <c r="J167">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>46</v>
       </c>
@@ -6552,16 +7038,19 @@
         <v>13</v>
       </c>
       <c r="I168">
+        <v>6</v>
+      </c>
+      <c r="J168">
         <v>12</v>
       </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
       <c r="K168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>46</v>
       </c>
@@ -6587,16 +7076,19 @@
         <v>9</v>
       </c>
       <c r="I169">
+        <v>12</v>
+      </c>
+      <c r="J169">
         <v>5</v>
       </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
       <c r="K169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>46</v>
       </c>
@@ -6622,16 +7114,19 @@
         <v>13</v>
       </c>
       <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
         <v>26</v>
       </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>46</v>
       </c>
@@ -6657,16 +7152,19 @@
         <v>8</v>
       </c>
       <c r="I171">
+        <v>9</v>
+      </c>
+      <c r="J171">
         <v>16</v>
       </c>
-      <c r="J171">
+      <c r="K171">
         <v>1</v>
       </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>46</v>
       </c>
@@ -6692,16 +7190,19 @@
         <v>16</v>
       </c>
       <c r="I172">
+        <v>5</v>
+      </c>
+      <c r="J172">
         <v>10</v>
       </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
       <c r="K172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>46</v>
       </c>
@@ -6730,13 +7231,16 @@
         <v>13</v>
       </c>
       <c r="J173">
+        <v>13</v>
+      </c>
+      <c r="K173">
         <v>5</v>
       </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>46</v>
       </c>
@@ -6762,16 +7266,19 @@
         <v>12</v>
       </c>
       <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
         <v>12</v>
       </c>
-      <c r="J174">
+      <c r="K174">
         <v>1</v>
       </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>46</v>
       </c>
@@ -6797,16 +7304,19 @@
         <v>4</v>
       </c>
       <c r="I175">
+        <v>9</v>
+      </c>
+      <c r="J175">
         <v>10</v>
       </c>
-      <c r="J175">
+      <c r="K175">
         <v>1</v>
       </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>46</v>
       </c>
@@ -6832,16 +7342,19 @@
         <v>12</v>
       </c>
       <c r="I176">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>46</v>
       </c>
@@ -6867,16 +7380,19 @@
         <v>8</v>
       </c>
       <c r="I177">
+        <v>10</v>
+      </c>
+      <c r="J177">
         <v>5</v>
       </c>
-      <c r="J177">
+      <c r="K177">
         <v>2</v>
       </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>46</v>
       </c>
@@ -6902,16 +7418,19 @@
         <v>14</v>
       </c>
       <c r="I178">
+        <v>4</v>
+      </c>
+      <c r="J178">
         <v>18</v>
       </c>
-      <c r="J178">
+      <c r="K178">
         <v>1</v>
       </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>46</v>
       </c>
@@ -6937,16 +7456,19 @@
         <v>8</v>
       </c>
       <c r="I179">
+        <v>9</v>
+      </c>
+      <c r="J179">
         <v>5</v>
       </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
       <c r="K179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>46</v>
       </c>
@@ -6972,16 +7494,19 @@
         <v>19</v>
       </c>
       <c r="I180">
+        <v>18</v>
+      </c>
+      <c r="J180">
         <v>3</v>
       </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
       <c r="K180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>46</v>
       </c>
@@ -7007,16 +7532,19 @@
         <v>15</v>
       </c>
       <c r="I181">
+        <v>16</v>
+      </c>
+      <c r="J181">
         <v>18</v>
       </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
       <c r="K181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>46</v>
       </c>
@@ -7042,16 +7570,19 @@
         <v>15</v>
       </c>
       <c r="I182">
+        <v>11</v>
+      </c>
+      <c r="J182">
         <v>12</v>
       </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>46</v>
       </c>
@@ -7077,16 +7608,19 @@
         <v>8</v>
       </c>
       <c r="I183">
+        <v>10</v>
+      </c>
+      <c r="J183">
         <v>18</v>
       </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>46</v>
       </c>
@@ -7112,16 +7646,19 @@
         <v>15</v>
       </c>
       <c r="I184">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J184">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>46</v>
       </c>
@@ -7147,16 +7684,19 @@
         <v>8</v>
       </c>
       <c r="I185">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J185">
+        <v>7</v>
+      </c>
+      <c r="K185">
         <v>1</v>
       </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>46</v>
       </c>
@@ -7182,16 +7722,19 @@
         <v>18</v>
       </c>
       <c r="I186">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J186">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>46</v>
       </c>
@@ -7217,16 +7760,19 @@
         <v>12</v>
       </c>
       <c r="I187">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J187">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>46</v>
       </c>
@@ -7252,16 +7798,19 @@
         <v>13</v>
       </c>
       <c r="I188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J188">
+        <v>7</v>
+      </c>
+      <c r="K188">
         <v>1</v>
       </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>46</v>
       </c>
@@ -7287,16 +7836,19 @@
         <v>7</v>
       </c>
       <c r="I189">
+        <v>9</v>
+      </c>
+      <c r="J189">
         <v>16</v>
       </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>46</v>
       </c>
@@ -7322,16 +7874,19 @@
         <v>15</v>
       </c>
       <c r="I190">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J190">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>46</v>
       </c>
@@ -7357,16 +7912,19 @@
         <v>13</v>
       </c>
       <c r="I191">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J191">
+        <v>8</v>
+      </c>
+      <c r="K191">
         <v>1</v>
       </c>
-      <c r="K191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>46</v>
       </c>
@@ -7392,16 +7950,19 @@
         <v>16</v>
       </c>
       <c r="I192">
+        <v>13</v>
+      </c>
+      <c r="J192">
         <v>12</v>
       </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
       <c r="K192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>46</v>
       </c>
@@ -7427,16 +7988,19 @@
         <v>9</v>
       </c>
       <c r="I193">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>46</v>
       </c>
@@ -7462,16 +8026,19 @@
         <v>19</v>
       </c>
       <c r="I194">
+        <v>9</v>
+      </c>
+      <c r="J194">
         <v>12</v>
       </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -7497,16 +8064,19 @@
         <v>12</v>
       </c>
       <c r="I195">
+        <v>14</v>
+      </c>
+      <c r="J195">
         <v>5</v>
       </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>46</v>
       </c>
@@ -7532,16 +8102,19 @@
         <v>13</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
         <v>12</v>
       </c>
-      <c r="J196">
+      <c r="K196">
         <v>1</v>
       </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>46</v>
       </c>
@@ -7567,16 +8140,19 @@
         <v>4</v>
       </c>
       <c r="I197">
+        <v>10</v>
+      </c>
+      <c r="J197">
         <v>18</v>
       </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
       <c r="K197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -7602,16 +8178,19 @@
         <v>15</v>
       </c>
       <c r="I198">
+        <v>5</v>
+      </c>
+      <c r="J198">
         <v>10</v>
       </c>
-      <c r="J198">
+      <c r="K198">
         <v>1</v>
       </c>
-      <c r="K198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>46</v>
       </c>
@@ -7637,16 +8216,19 @@
         <v>15</v>
       </c>
       <c r="I199">
+        <v>17</v>
+      </c>
+      <c r="J199">
         <v>5</v>
       </c>
-      <c r="J199">
-        <v>0</v>
-      </c>
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>46</v>
       </c>
@@ -7672,16 +8254,19 @@
         <v>13</v>
       </c>
       <c r="I200">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J200">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>46</v>
       </c>
@@ -7707,16 +8292,19 @@
         <v>10</v>
       </c>
       <c r="I201">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J201">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>46</v>
       </c>
@@ -7742,16 +8330,19 @@
         <v>13</v>
       </c>
       <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202">
         <v>22</v>
       </c>
-      <c r="J202">
-        <v>0</v>
-      </c>
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>46</v>
       </c>
@@ -7777,16 +8368,19 @@
         <v>9</v>
       </c>
       <c r="I203">
+        <v>11</v>
+      </c>
+      <c r="J203">
         <v>3</v>
       </c>
-      <c r="J203">
-        <v>0</v>
-      </c>
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>46</v>
       </c>
@@ -7812,16 +8406,19 @@
         <v>17</v>
       </c>
       <c r="I204">
+        <v>7</v>
+      </c>
+      <c r="J204">
         <v>12</v>
       </c>
-      <c r="J204">
-        <v>0</v>
-      </c>
       <c r="K204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>46</v>
       </c>
@@ -7847,16 +8444,19 @@
         <v>15</v>
       </c>
       <c r="I205">
+        <v>17</v>
+      </c>
+      <c r="J205">
         <v>1</v>
       </c>
-      <c r="J205">
+      <c r="K205">
         <v>2</v>
       </c>
-      <c r="K205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>46</v>
       </c>
@@ -7882,16 +8482,19 @@
         <v>13</v>
       </c>
       <c r="I206">
+        <v>9</v>
+      </c>
+      <c r="J206">
         <v>12</v>
       </c>
-      <c r="J206">
-        <v>0</v>
-      </c>
       <c r="K206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>46</v>
       </c>
@@ -7917,16 +8520,19 @@
         <v>7</v>
       </c>
       <c r="I207">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J207">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>46</v>
       </c>
@@ -7952,16 +8558,19 @@
         <v>15</v>
       </c>
       <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
         <v>28</v>
       </c>
-      <c r="J208">
+      <c r="K208">
         <v>1</v>
       </c>
-      <c r="K208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>46</v>
       </c>
@@ -7987,16 +8596,19 @@
         <v>10</v>
       </c>
       <c r="I209">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J209">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>46</v>
       </c>
@@ -8022,16 +8634,19 @@
         <v>13</v>
       </c>
       <c r="I210">
+        <v>11</v>
+      </c>
+      <c r="J210">
         <v>10</v>
       </c>
-      <c r="J210">
-        <v>0</v>
-      </c>
       <c r="K210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>46</v>
       </c>
@@ -8057,16 +8672,19 @@
         <v>9</v>
       </c>
       <c r="I211">
+        <v>11</v>
+      </c>
+      <c r="J211">
         <v>25</v>
       </c>
-      <c r="J211">
-        <v>4</v>
-      </c>
       <c r="K211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>46</v>
       </c>
@@ -8092,16 +8710,19 @@
         <v>12</v>
       </c>
       <c r="I212">
+        <v>4</v>
+      </c>
+      <c r="J212">
         <v>25</v>
       </c>
-      <c r="J212">
-        <v>0</v>
-      </c>
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -8127,16 +8748,19 @@
         <v>6</v>
       </c>
       <c r="I213">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J213">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>46</v>
       </c>
@@ -8162,16 +8786,19 @@
         <v>18</v>
       </c>
       <c r="I214">
+        <v>7</v>
+      </c>
+      <c r="J214">
         <v>19</v>
       </c>
-      <c r="J214">
+      <c r="K214">
         <v>1</v>
       </c>
-      <c r="K214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>46</v>
       </c>
@@ -8197,16 +8824,19 @@
         <v>13</v>
       </c>
       <c r="I215">
+        <v>16</v>
+      </c>
+      <c r="J215">
         <v>12</v>
       </c>
-      <c r="J215">
-        <v>0</v>
-      </c>
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>46</v>
       </c>
@@ -8232,16 +8862,19 @@
         <v>14</v>
       </c>
       <c r="I216">
+        <v>3</v>
+      </c>
+      <c r="J216">
         <v>20</v>
       </c>
-      <c r="J216">
-        <v>0</v>
-      </c>
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -8267,16 +8900,19 @@
         <v>9</v>
       </c>
       <c r="I217">
+        <v>11</v>
+      </c>
+      <c r="J217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>0</v>
-      </c>
       <c r="K217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -8302,16 +8938,19 @@
         <v>13</v>
       </c>
       <c r="I218">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J218">
+        <v>13</v>
+      </c>
+      <c r="K218">
         <v>1</v>
       </c>
-      <c r="K218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -8337,16 +8976,19 @@
         <v>8</v>
       </c>
       <c r="I219">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J219">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>46</v>
       </c>
@@ -8372,16 +9014,19 @@
         <v>16</v>
       </c>
       <c r="I220">
+        <v>6</v>
+      </c>
+      <c r="J220">
         <v>23</v>
       </c>
-      <c r="J220">
-        <v>0</v>
-      </c>
       <c r="K220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>46</v>
       </c>
@@ -8407,16 +9052,19 @@
         <v>10</v>
       </c>
       <c r="I221">
+        <v>12</v>
+      </c>
+      <c r="J221">
         <v>10</v>
       </c>
-      <c r="J221">
-        <v>0</v>
-      </c>
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>46</v>
       </c>
@@ -8442,16 +9090,19 @@
         <v>17</v>
       </c>
       <c r="I222">
+        <v>14</v>
+      </c>
+      <c r="J222">
         <v>5</v>
       </c>
-      <c r="J222">
-        <v>0</v>
-      </c>
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>46</v>
       </c>
@@ -8477,12 +9128,15 @@
         <v>12</v>
       </c>
       <c r="I223">
+        <v>15</v>
+      </c>
+      <c r="J223">
         <v>21</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>2</v>
       </c>
-      <c r="K223">
+      <c r="L223">
         <v>1</v>
       </c>
     </row>
